--- a/04b-minimal-sharing/code/winner.xlsx
+++ b/04b-minimal-sharing/code/winner.xlsx
@@ -8,12 +8,12 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="x" vbProcedure="false">Sheet1!$B$11</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="x" vbProcedure="false">Sheet2!$B$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="x" vbProcedure="false">Sheet2!$B$11</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <r>
       <rPr>
@@ -208,32 +208,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(x = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Nachlieli CLM"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">כמה איואנה מקבלת מהחפץ שחולק</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
     </r>
   </si>
   <si>
@@ -447,7 +421,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -472,10 +446,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -501,10 +471,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -615,7 +581,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -660,16 +626,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="n">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="n">
         <v>15</v>
       </c>
       <c r="F2" s="3"/>
@@ -691,15 +657,15 @@
         <v>7</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="n">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="n">
         <v>25</v>
       </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="5" t="n">
         <v>30</v>
       </c>
       <c r="H3" s="5"/>
@@ -713,186 +679,166 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="n">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="n">
         <f aca="false">C2/C3</f>
         <v>0.375</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="n">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="n">
         <f aca="false">E2/E3</f>
         <v>0.6</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9" t="n">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="n">
         <f aca="false">G2/G3</f>
         <v>1.33333333333333</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9" t="n">
+      <c r="H5" s="8"/>
+      <c r="I5" s="8" t="n">
         <f aca="false">I2/I3</f>
         <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="11" t="n">
+      <c r="B7" s="10" t="n">
         <f aca="false">SUM(B2:$J$2)</f>
         <v>100</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11" t="n">
+      <c r="C7" s="11"/>
+      <c r="D7" s="10" t="n">
         <f aca="false">SUM(D2:$J$2)</f>
         <v>85</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="11" t="n">
+      <c r="E7" s="11"/>
+      <c r="F7" s="9" t="n">
         <f aca="false">SUM(F2:$J$2)</f>
         <v>70</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="10" t="n">
+      <c r="G7" s="12"/>
+      <c r="H7" s="9" t="n">
         <f aca="false">SUM(H2:$J$2)</f>
         <v>30</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="11" t="n">
+      <c r="I7" s="11"/>
+      <c r="J7" s="10" t="n">
         <f aca="false">SUM(J2:$J$2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="12" t="n">
+      <c r="B8" s="11" t="n">
         <f aca="false">SUM($B$3:B3)</f>
         <v>0</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12" t="n">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="n">
         <f aca="false">SUM($B$3:D3)</f>
         <v>40</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13" t="n">
+      <c r="E8" s="11"/>
+      <c r="F8" s="12" t="n">
         <f aca="false">SUM($B$3:F3)</f>
         <v>65</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14" t="n">
+      <c r="G8" s="12"/>
+      <c r="H8" s="12" t="n">
         <f aca="false">SUM($B$3:H3)</f>
         <v>95</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12" t="n">
+      <c r="I8" s="11"/>
+      <c r="J8" s="11" t="n">
         <f aca="false">SUM($B$3:J3)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>67</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>54</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>90</v>
-      </c>
-    </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="15" t="str">
+      <c r="B10" s="1" t="str">
         <f aca="false">_xlfn.CONCAT(F8,"+",G3,"x = ",H7,"+",G2,"(1-x)")</f>
         <v>65+30x = 30+40(1-x)</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15"/>
-      <c r="B11" s="1" t="s">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <f aca="false">(H7-F8+G2)/(G3+G2)</f>
         <v>0.0714285714285714</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="19" t="n">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="17" t="n">
         <f aca="false">H7+(1-x)*G2</f>
         <v>67.1428571428571</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19" t="n">
+      <c r="H13" s="14"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17" t="n">
         <f aca="false">F8+x*G3</f>
         <v>67.1428571428571</v>
       </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-    </row>
-    <row r="17" s="7" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21" t="n">
+      <c r="H14" s="17"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="16" s="6" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19" t="n">
         <f aca="false">C3*$G$5</f>
         <v>53.3333333333333</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21" t="n">
+      <c r="D16" s="19"/>
+      <c r="E16" s="19" t="n">
         <f aca="false">E3*$G$5</f>
         <v>33.3333333333333</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21" t="n">
+      <c r="F16" s="19"/>
+      <c r="G16" s="19" t="n">
         <f aca="false">G3*$G$5</f>
         <v>40</v>
       </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21" t="n">
+      <c r="H16" s="19"/>
+      <c r="I16" s="19" t="n">
         <f aca="false">I3*$G$5</f>
         <v>6.66666666666667</v>
       </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -955,7 +901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1008,90 +954,90 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="n">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="n">
         <f aca="false">C2/C3</f>
         <v>0.375</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="n">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="n">
         <f aca="false">E2/E3</f>
         <v>0.6</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9" t="n">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="n">
         <f aca="false">G2/G3</f>
         <v>1.33333333333333</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9" t="n">
+      <c r="H5" s="8"/>
+      <c r="I5" s="8" t="n">
         <f aca="false">I2/I3</f>
         <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="11" t="n">
+      <c r="B7" s="10" t="n">
         <f aca="false">SUM(B2:$J$2)</f>
         <v>100</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11" t="n">
+      <c r="C7" s="11"/>
+      <c r="D7" s="10" t="n">
         <f aca="false">SUM(D2:$J$2)</f>
         <v>85</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="10" t="n">
+      <c r="E7" s="11"/>
+      <c r="F7" s="9" t="n">
         <f aca="false">SUM(F2:$J$2)</f>
         <v>70</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="10" t="n">
+      <c r="G7" s="12"/>
+      <c r="H7" s="9" t="n">
         <f aca="false">SUM(H2:$J$2)</f>
         <v>30</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="11" t="n">
+      <c r="I7" s="11"/>
+      <c r="J7" s="10" t="n">
         <f aca="false">SUM(J2:$J$2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="12" t="n">
+      <c r="B8" s="11" t="n">
         <f aca="false">SUM($B$3:B3)</f>
         <v>0</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12" t="n">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="n">
         <f aca="false">SUM($B$3:D3)</f>
         <v>40</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13" t="n">
+      <c r="E8" s="11"/>
+      <c r="F8" s="12" t="n">
         <f aca="false">SUM($B$3:F3)</f>
         <v>65</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13" t="n">
+      <c r="G8" s="12"/>
+      <c r="H8" s="12" t="n">
         <f aca="false">SUM($B$3:H3)</f>
         <v>95</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12" t="n">
+      <c r="I8" s="11"/>
+      <c r="J8" s="11" t="n">
         <f aca="false">SUM($B$3:J3)</f>
         <v>100</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="str">
@@ -1100,8 +1046,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
-        <v>13</v>
+      <c r="A11" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="n">
         <f aca="false">(H7-F8+G2)/(G3+G2)</f>
@@ -1109,65 +1055,65 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="19" t="n">
+      <c r="A13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="17" t="n">
         <f aca="false">H7+(1-x)*G2</f>
         <v>67.1428571428571</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="17"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19" t="n">
+      <c r="A14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17" t="n">
         <f aca="false">F8+x*G3</f>
         <v>67.1428571428571</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-    </row>
-    <row r="16" s="7" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21" t="n">
+      <c r="H14" s="17"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="16" s="6" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19" t="n">
         <f aca="false">C3*$G$5</f>
         <v>53.3333333333333</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21" t="n">
+      <c r="D16" s="19"/>
+      <c r="E16" s="19" t="n">
         <f aca="false">E3*$G$5</f>
         <v>33.3333333333333</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21" t="n">
+      <c r="F16" s="19"/>
+      <c r="G16" s="19" t="n">
         <f aca="false">G3*$G$5</f>
         <v>40</v>
       </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21" t="n">
+      <c r="H16" s="19"/>
+      <c r="I16" s="19" t="n">
         <f aca="false">I3*$G$5</f>
         <v>6.66666666666667</v>
       </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
